--- a/RECORDS/elastic_watcher_master.xlsx
+++ b/RECORDS/elastic_watcher_master.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\MaaPs\MaaPs_code\ankit_personal-git-repo\elastic-watcher-automation\elastic-watcher-automation\RECORDS\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{93CB6AF2-21A3-4B66-A2A6-815697068A57}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4361E463-546E-4BEE-9EA3-F179229CD854}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-16320" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-16320" windowWidth="29040" windowHeight="15840" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="success" sheetId="1" r:id="rId1"/>
@@ -442,7 +442,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:S1"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <sheetData>
@@ -514,15 +514,11 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:S1"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="A2" sqref="A2:XFD8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
-  <cols>
-    <col min="7" max="7" width="16.90625" customWidth="1"/>
-    <col min="19" max="19" width="98.1796875" customWidth="1"/>
-  </cols>
   <sheetData>
     <row r="1" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A1" s="1" t="s">
